--- a/lab3/lab3.xlsx
+++ b/lab3/lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nctuitsc-my.sharepoint.com/personal/samuel95207_eed07_o365_nctu_edu_tw/Documents/學校科目/無線隨意網路/lab/lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{DF773357-6F5B-45DE-8468-B69D78217B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82CDD2A9-C9F4-4E27-B318-1FF8CA6769B7}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{DF773357-6F5B-45DE-8468-B69D78217B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C393861-6B0A-491C-83D3-93F9F9050DFD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="10182" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Average System Throughput (bps)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>d12 (m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Packet Loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1863,7 +1867,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Average Packet Loss Ratio</c:v>
+                  <c:v>Average Packet Loss</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3x3</c:v>
@@ -1959,7 +1963,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Average Packet Loss Ratio</c:v>
+                  <c:v>Average Packet Loss</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4x4</c:v>
@@ -2055,7 +2059,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Average Packet Loss Ratio</c:v>
+                  <c:v>Average Packet Loss</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5x5</c:v>
@@ -5243,8 +5247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1BEEAC-4F5D-47DE-93A9-5FF3F2416947}">
   <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="68" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
@@ -5266,7 +5270,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
